--- a/Questions/kpopName.xlsx
+++ b/Questions/kpopName.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65967000-BF5B-A044-AF8E-F8999AF470F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8962C8D8-17FD-944E-B597-DE07E7B1C699}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{D4372121-F31D-B344-9FE4-9CFE04981C8C}"/>
+    <workbookView xWindow="28800" yWindow="2480" windowWidth="19200" windowHeight="14860" xr2:uid="{D4372121-F31D-B344-9FE4-9CFE04981C8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -606,9 +606,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>oWiR9Ojn7JY</t>
-  </si>
-  <si>
     <t>t1H-Kw-7PGE</t>
   </si>
   <si>
@@ -799,6 +796,9 @@
   </si>
   <si>
     <t>tLfPWyfHfWg</t>
+  </si>
+  <si>
+    <t>5_aS-y4GpeY</t>
   </si>
 </sst>
 </file>
@@ -1173,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323B39E6-2306-F642-9534-6F3C75CC053A}">
   <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="109" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2216,7 +2216,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="C73">
         <v>46</v>
@@ -2230,7 +2230,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C74">
         <v>60</v>
@@ -2244,7 +2244,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C75">
         <v>50</v>
@@ -2258,7 +2258,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C76">
         <v>45</v>
@@ -2272,7 +2272,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C78">
         <v>26</v>
@@ -2300,7 +2300,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C79">
         <v>40</v>
@@ -2314,7 +2314,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C80">
         <v>50</v>
@@ -2328,7 +2328,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C81">
         <v>45</v>
@@ -2342,7 +2342,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C82">
         <v>46</v>
@@ -2356,13 +2356,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C83">
         <v>116</v>
       </c>
       <c r="D83" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2370,13 +2370,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C84">
         <v>65</v>
       </c>
       <c r="D84" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2384,13 +2384,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2398,13 +2398,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C86">
         <v>52</v>
       </c>
       <c r="D86" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2412,13 +2412,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C87">
         <v>11</v>
       </c>
       <c r="D87" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2426,13 +2426,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C88">
         <v>47</v>
       </c>
       <c r="D88" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2440,13 +2440,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C89">
         <v>70</v>
       </c>
       <c r="D89" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2454,13 +2454,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C90">
         <v>50</v>
       </c>
       <c r="D90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2468,13 +2468,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C91">
         <v>81</v>
       </c>
       <c r="D91" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2482,13 +2482,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C92">
         <v>84</v>
       </c>
       <c r="D92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2496,13 +2496,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C93">
         <v>46</v>
       </c>
       <c r="D93" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2510,13 +2510,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C94">
         <v>64</v>
       </c>
       <c r="D94" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2524,13 +2524,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C95">
         <v>138</v>
       </c>
       <c r="D95" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2538,13 +2538,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C96">
         <v>177</v>
       </c>
       <c r="D96" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2552,13 +2552,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C97">
         <v>50</v>
       </c>
       <c r="D97" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2566,13 +2566,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98">
         <v>196</v>
       </c>
       <c r="D98" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2580,13 +2580,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C99">
         <v>42</v>
       </c>
       <c r="D99" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2594,13 +2594,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C100">
         <v>62</v>
       </c>
       <c r="D100" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2608,13 +2608,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C101">
         <v>68</v>
       </c>
       <c r="D101" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2622,13 +2622,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C102">
         <v>53</v>
       </c>
       <c r="D102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2636,13 +2636,13 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C103">
         <v>74</v>
       </c>
       <c r="D103" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2650,13 +2650,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C104">
         <v>75</v>
       </c>
       <c r="D104" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2664,13 +2664,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C105">
         <v>85</v>
       </c>
       <c r="D105" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2678,13 +2678,13 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C106">
         <v>12</v>
       </c>
       <c r="D106" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
